--- a/data/tempest_deps.xlsx
+++ b/data/tempest_deps.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="1800" yWindow="520" windowWidth="31400" windowHeight="18760" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="tempest_import_per_namespace" sheetId="6" r:id="rId1"/>
-    <sheet name="repos_per_import_tempest" sheetId="4" r:id="rId2"/>
-    <sheet name="lib_import_per_namespace" sheetId="7" r:id="rId3"/>
-    <sheet name="repos_per_import_lib" sheetId="5" r:id="rId4"/>
+    <sheet name="tempest" sheetId="9" r:id="rId1"/>
+    <sheet name="tempest_import_per_namespace" sheetId="6" r:id="rId2"/>
+    <sheet name="tempest_import_per_namespac (2)" sheetId="11" r:id="rId3"/>
+    <sheet name="tempest_import_per_namespac (4)" sheetId="13" r:id="rId4"/>
+    <sheet name="tempest_import_per_namespac (3)" sheetId="12" r:id="rId5"/>
+    <sheet name="lib" sheetId="10" r:id="rId6"/>
+    <sheet name="lib_import_per_namespace" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="repo_per_lib_imports" localSheetId="3">repos_per_import_lib!$A$1:$D$9</definedName>
-    <definedName name="repo_per_tempest_imports" localSheetId="1">repos_per_import_tempest!$A$1:$D$19</definedName>
+    <definedName name="repo_per_lib_imports" localSheetId="5">lib!$A$1:$G$9</definedName>
+    <definedName name="repo_per_tempest_imports" localSheetId="0">tempest!$A$1:$G$19</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +40,7 @@
     </textPr>
   </connection>
   <connection id="2" name="repo_per_lib_imports" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports" tab="0" semicolon="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports" tab="0" semicolon="1">
       <textFields count="4">
         <textField type="text"/>
         <textField type="text"/>
@@ -46,8 +49,19 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="repo_per_tempest_imports" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_tempest_imports" tab="0" semicolon="1">
+  <connection id="3" name="repo_per_lib_imports1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports" tab="0" semicolon="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="repo_per_tempest_imports" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports" tab="0" semicolon="1">
       <textFields count="4">
         <textField type="text"/>
         <textField type="text"/>
@@ -56,11 +70,22 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="5" name="repo_per_tempest_imports1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_tempest_imports" tab="0" semicolon="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>blazar</t>
   </si>
@@ -215,9 +240,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>aodh,blazar,ceilometer,cerberus,congress,designate,ec2-api,freezer,freezer-api,gce-api,gnocchi,intel-nfv-ci-tests,ironic,keystone,kingbird,magnum,manila,mistral,monasca-api,monasca-log-api,murano,networking-bgpvpn,networking-fortinet,networking-l2gw,networking-plumgrid,networking-vsphere,neutron,neutron-fwaas,neutron-lbaas,neutron-vpnaas,sahara,sahara-tests,senlin,tap-as-a-service,tempest-plugin-cookiecutter,vitrage,vmware-nsx,watcher,zaqar</t>
-  </si>
-  <si>
     <t>test_discover</t>
   </si>
   <si>
@@ -297,13 +319,31 @@
   </si>
   <si>
     <t>lib.tests</t>
+  </si>
+  <si>
+    <t>total_count</t>
+  </si>
+  <si>
+    <t>aodh,blazar,ceilometer,cerberus,congress,designate,ec2-api,freezer,freezer-api,gce-api,gnocchi,intel-nfv-ci-tests,ironic,kingbird,manila,mistral,monasca-api,monasca-log-api,murano,networking-bgpvpn,networking-fortinet,networking-l2gw,networking-vsphere,neutron,neutron-fwaas,neutron-lbaas,neutron-vpnaas,sahara,sahara-tests,senlin,tap-as-a-service,vitrage,vmware-nsx,watcher,zaqar</t>
+  </si>
+  <si>
+    <t>pad count</t>
+  </si>
+  <si>
+    <t>pad total</t>
+  </si>
+  <si>
+    <t>pad_count</t>
+  </si>
+  <si>
+    <t>pad_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,27 +367,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -374,24 +400,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -410,167 +421,60 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -602,21 +506,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Count</a:t>
+              <a:t>Repos with 1+ imports vs. Total imports </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Repos with 1+ imports per </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" i="1" baseline="0"/>
-              <a:t>tempest</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> namespace</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -631,11 +522,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>repos_per_import_tempest!$C$1</c:f>
+              <c:f>tempest!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -644,17 +535,20 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>repos_per_import_tempest!$B$2:$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>config</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>test_discover</c:v>
@@ -663,30 +557,27 @@
                   <c:v>common</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>cli</c:v>
+                  <c:v>clients</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>clients</c:v>
+                  <c:v>exceptions</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>exceptions</c:v>
+                  <c:v>scenario</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>scenario</c:v>
+                  <c:v>manager</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>manager</c:v>
+                  <c:v>api</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>api</c:v>
+                  <c:v>services</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>services</c:v>
+                  <c:v>auth</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>openstack</c:v>
                 </c:pt>
               </c:strCache>
@@ -694,15 +585,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>repos_per_import_tempest!$C$2:$C$19</c:f>
+              <c:f>tempest!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
                   <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31.0</c:v>
@@ -714,29 +605,98 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0</c:v>
-                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pad_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>api</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -750,11 +710,221 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146944776"/>
-        <c:axId val="-2146941832"/>
+        <c:axId val="-2143737544"/>
+        <c:axId val="-2143582440"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pad_total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>api</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>api</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2112788520"/>
+        <c:axId val="-2112818808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146944776"/>
+        <c:axId val="-2143737544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,7 +933,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146941832"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" cap="small"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2143582440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -771,7 +951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146941832"/>
+        <c:axId val="-2143582440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,10 +962,72 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146944776"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2143737544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-2112818808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2112788520"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2112788520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112818808"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -814,76 +1056,1354 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Repos with 1+ imports vs. Total imports </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>api</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>api</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2110247832"/>
+        <c:axId val="-2113631192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2110247832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" cap="small"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2113631192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2113631192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2110247832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Count of Repos with 1+ imports per </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Repos with 1+ imports vs. Total imports </a:t>
             </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$2,tempest!$F$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$3,tempest!$F$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$4,tempest!$F$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>common</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$5,tempest!$F$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$6,tempest!$F$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$7,tempest!$F$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scenario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$8,tempest!$F$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$9,tempest!$F$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>api</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$10,tempest!$F$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>services</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$11,tempest!$F$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>auth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$12,tempest!$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(tempest!$C$13,tempest!$F$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2110782328"/>
+        <c:axId val="-2108522344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2110782328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" cap="small"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2108522344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2108522344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2110782328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>tempest.lib</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Repos with 1+ imports </a:t>
             </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>api</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> namespace</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Total imports </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>api</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count of Repos with 1+ imports per tempest.lib namespace</a:t>
+            </a:r>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -904,7 +2424,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>repos_per_import_lib!$C$1</c:f>
+              <c:f>lib!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -914,14 +2434,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>repos_per_import_lib!$B$2:$B$9</c:f>
+              <c:f>lib!$B$2:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -953,7 +2471,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>repos_per_import_lib!$C$2:$C$9</c:f>
+              <c:f>lib!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -981,6 +2499,66 @@
                 <c:pt idx="7">
                   <c:v>1.0</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lib!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pad count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lib!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>lib.exceptions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lib.common</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lib.cli</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lib.decorators</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>lib.base</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lib.services</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lib.auth</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lib.tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lib!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -994,11 +2572,185 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142638904"/>
-        <c:axId val="2143135336"/>
+        <c:axId val="2123201592"/>
+        <c:axId val="2123197832"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lib!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pad total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lib!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>lib.exceptions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lib.common</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lib.cli</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lib.decorators</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>lib.base</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lib.services</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lib.auth</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lib.tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lib!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lib!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lib!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>lib.exceptions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lib.common</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lib.cli</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lib.decorators</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>lib.base</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lib.services</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lib.auth</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lib.tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lib!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2129953480"/>
+        <c:axId val="-2142960296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142638904"/>
+        <c:axId val="2123201592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +2759,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143135336"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" cap="small"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123197832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1015,7 +2777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143135336"/>
+        <c:axId val="2123197832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,10 +2788,72 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142638904"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123201592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-2142960296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129953480"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2129953480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142960296"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1042,7 +2866,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="163" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1053,7 +2877,29 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="193" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="163" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="163" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="163" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1064,7 +2910,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9205855" cy="5613005"/>
+    <xdr:ext cx="9211519" cy="5618544"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1091,7 +2937,128 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9205855" cy="5613005"/>
+    <xdr:ext cx="9211519" cy="5618544"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9211519" cy="5618544"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9201656" cy="5609816"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1115,42 +3082,48 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_tempest_imports" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_tempest_imports" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_lib_imports" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_lib_imports" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
-  <autoFilter ref="A1:D19"/>
-  <sortState ref="A2:D19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:G19"/>
+  <sortState ref="A2:E19">
     <sortCondition descending="1" ref="C1:C19"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="import" dataDxfId="13"/>
-    <tableColumn id="2" name="namespace" dataDxfId="12"/>
-    <tableColumn id="3" name="count" dataDxfId="11"/>
-    <tableColumn id="4" name="repos" dataDxfId="10"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="import" dataDxfId="17"/>
+    <tableColumn id="2" name="namespace" dataDxfId="16"/>
+    <tableColumn id="3" name="count" dataDxfId="15"/>
+    <tableColumn id="7" name="pad_count" dataDxfId="0"/>
+    <tableColumn id="6" name="pad_total" dataDxfId="1"/>
+    <tableColumn id="4" name="total_count" dataDxfId="14"/>
+    <tableColumn id="5" name="repos" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A1:D9"/>
-  <sortState ref="A2:D9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:G9"/>
+  <sortState ref="A2:E9">
     <sortCondition descending="1" ref="C1:C9"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="import" dataDxfId="3"/>
-    <tableColumn id="2" name="namespace" dataDxfId="2"/>
-    <tableColumn id="3" name="count" dataDxfId="1"/>
-    <tableColumn id="4" name="repos" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="import" dataDxfId="10"/>
+    <tableColumn id="2" name="namespace" dataDxfId="9"/>
+    <tableColumn id="3" name="count" dataDxfId="8"/>
+    <tableColumn id="7" name="pad count" dataDxfId="2"/>
+    <tableColumn id="6" name="pad total" dataDxfId="3"/>
+    <tableColumn id="4" name="total_count" dataDxfId="7"/>
+    <tableColumn id="5" name="repos" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1476,283 +3449,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="104" customWidth="1"/>
+    <col min="4" max="5" width="0.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="75">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>196</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="1">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>305</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C4" s="1">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>82</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="1">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>126</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
+    <row r="14" spans="1:7" hidden="1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" hidden="1">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
+    <row r="15" spans="1:7" hidden="1">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" hidden="1">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" hidden="1">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7" hidden="1">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" hidden="1">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:7" hidden="1">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" hidden="1">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1771,143 +3845,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="120">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>218</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="6">
-        <v>44</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="75">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>216</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="6">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>67</v>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="6">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="75">
-      <c r="A5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="120">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="6">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/tempest_deps.xlsx
+++ b/data/tempest_deps.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\github.com\andreafrittoli\tempest_stable_interfaces\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="520" windowWidth="31400" windowHeight="18760" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="1823" yWindow="518" windowWidth="31403" windowHeight="19178" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tempest" sheetId="9" r:id="rId1"/>
-    <sheet name="tempest_import_per_namespace" sheetId="6" r:id="rId2"/>
-    <sheet name="tempest_import_per_namespac (2)" sheetId="11" r:id="rId3"/>
-    <sheet name="tempest_import_per_namespac (4)" sheetId="13" r:id="rId4"/>
-    <sheet name="tempest_import_per_namespac (3)" sheetId="12" r:id="rId5"/>
-    <sheet name="lib" sheetId="10" r:id="rId6"/>
-    <sheet name="lib_import_per_namespace" sheetId="7" r:id="rId7"/>
+    <sheet name="tempest_graph" sheetId="14" r:id="rId2"/>
+    <sheet name="tempest_graph (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="lib" sheetId="10" r:id="rId4"/>
+    <sheet name="lib_graph" sheetId="15" r:id="rId5"/>
+    <sheet name="tempest_detailed" sheetId="16" r:id="rId6"/>
+    <sheet name="tempest_detailed_graph" sheetId="19" r:id="rId7"/>
+    <sheet name="lib_detailed" sheetId="17" r:id="rId8"/>
+    <sheet name="lib_detailed_graph" sheetId="18" r:id="rId9"/>
+    <sheet name="lib_detailed_graph_full" sheetId="21" r:id="rId10"/>
+    <sheet name="plugins_over_time" sheetId="22" r:id="rId11"/>
+    <sheet name="plugins_over_time_graph" sheetId="23" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="repo_per_lib_imports" localSheetId="5">lib!$A$1:$G$9</definedName>
+    <definedName name="repo_per_lib_imports" localSheetId="3">lib!$A$1:$G$9</definedName>
+    <definedName name="repo_per_lib_imports_detailed" localSheetId="7">lib_detailed!$A$1:$E$22</definedName>
     <definedName name="repo_per_tempest_imports" localSheetId="0">tempest!$A$1:$G$19</definedName>
+    <definedName name="repo_per_tempest_imports_detailed" localSheetId="5">tempest_detailed!$A$1:$E$51</definedName>
+    <definedName name="tempest_plugins" localSheetId="10">plugins_over_time!$A$2:$C$30</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -49,7 +62,18 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="repo_per_lib_imports1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="repo_per_lib_imports_detailed" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports_detailed" tab="0" semicolon="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="repo_per_lib_imports1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports" tab="0" semicolon="1">
       <textFields count="5">
         <textField/>
@@ -60,7 +84,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="repo_per_tempest_imports" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="repo_per_tempest_imports" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports" tab="0" semicolon="1">
       <textFields count="4">
         <textField type="text"/>
@@ -70,7 +94,18 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="repo_per_tempest_imports1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="repo_per_tempest_imports_detailed" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_tempest_imports_detailed" tab="0" semicolon="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="repo_per_tempest_imports1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_tempest_imports" tab="0" semicolon="1">
       <textFields count="5">
         <textField/>
@@ -81,11 +116,20 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="8" name="tempest_plugins.dat" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:plugins:tempest_plugins.dat" tab="0" space="1" consecutive="1">
+      <textFields count="3">
+        <textField type="YMD"/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="253">
   <si>
     <t>blazar</t>
   </si>
@@ -337,6 +381,513 @@
   </si>
   <si>
     <t>pad_total</t>
+  </si>
+  <si>
+    <t>tempest.api.compute</t>
+  </si>
+  <si>
+    <t>api.compute</t>
+  </si>
+  <si>
+    <t>intel-nfv-ci-tests</t>
+  </si>
+  <si>
+    <t>tempest.api.dns</t>
+  </si>
+  <si>
+    <t>api.dns</t>
+  </si>
+  <si>
+    <t>tempest.api.kingbird</t>
+  </si>
+  <si>
+    <t>api.kingbird</t>
+  </si>
+  <si>
+    <t>kingbird</t>
+  </si>
+  <si>
+    <t>tempest.api.network</t>
+  </si>
+  <si>
+    <t>api.network</t>
+  </si>
+  <si>
+    <t>networking-bgpvpn,networking-fortinet,neutron-fwaas,neutron-lbaas,tap-as-a-service,vmware-nsx</t>
+  </si>
+  <si>
+    <t>tempest.api_schema.dns</t>
+  </si>
+  <si>
+    <t>api_schema.dns</t>
+  </si>
+  <si>
+    <t>tempest.cli.climateclient</t>
+  </si>
+  <si>
+    <t>cli.climateclient</t>
+  </si>
+  <si>
+    <t>tempest.cloudscaling.base</t>
+  </si>
+  <si>
+    <t>cloudscaling.base</t>
+  </si>
+  <si>
+    <t>tempest.cloudscaling.thirdparty</t>
+  </si>
+  <si>
+    <t>cloudscaling.thirdparty</t>
+  </si>
+  <si>
+    <t>tempest.cloudscaling.utils</t>
+  </si>
+  <si>
+    <t>cloudscaling.utils</t>
+  </si>
+  <si>
+    <t>tempest.common.compute</t>
+  </si>
+  <si>
+    <t>common.compute</t>
+  </si>
+  <si>
+    <t>ceilometer,networking-fortinet</t>
+  </si>
+  <si>
+    <t>tempest.common.cred_provider</t>
+  </si>
+  <si>
+    <t>common.cred_provider</t>
+  </si>
+  <si>
+    <t>neutron-lbaas</t>
+  </si>
+  <si>
+    <t>tempest.common.credentials_factory</t>
+  </si>
+  <si>
+    <t>common.credentials_factory</t>
+  </si>
+  <si>
+    <t>congress,freezer-api,intel-nfv-ci-tests,ironic,magnum,manila,monasca-api,monasca-log-api,murano,watcher</t>
+  </si>
+  <si>
+    <t>tempest.common.custom_matchers</t>
+  </si>
+  <si>
+    <t>common.custom_matchers</t>
+  </si>
+  <si>
+    <t>vmware-nsx</t>
+  </si>
+  <si>
+    <t>tempest.common.dynamic_creds</t>
+  </si>
+  <si>
+    <t>common.dynamic_creds</t>
+  </si>
+  <si>
+    <t>manila,murano</t>
+  </si>
+  <si>
+    <t>tempest.common.kingbird</t>
+  </si>
+  <si>
+    <t>common.kingbird</t>
+  </si>
+  <si>
+    <t>tempest.common.rest_client</t>
+  </si>
+  <si>
+    <t>common.rest_client</t>
+  </si>
+  <si>
+    <t>tempest.common.service_client</t>
+  </si>
+  <si>
+    <t>common.service_client</t>
+  </si>
+  <si>
+    <t>monasca-log-api</t>
+  </si>
+  <si>
+    <t>tempest.common.utils</t>
+  </si>
+  <si>
+    <t>common.utils</t>
+  </si>
+  <si>
+    <t>aodh,ceilometer,designate,ec2-api,gce-api,manila,monasca-api,networking-bgpvpn,networking-fortinet,sahara-tests,vmware-nsx,zaqar</t>
+  </si>
+  <si>
+    <t>tempest.common.waiters</t>
+  </si>
+  <si>
+    <t>common.waiters</t>
+  </si>
+  <si>
+    <t>intel-nfv-ci-tests,ironic,networking-fortinet,neutron-lbaas,vmware-nsx</t>
+  </si>
+  <si>
+    <t>tempest.openstack.common</t>
+  </si>
+  <si>
+    <t>openstack.common</t>
+  </si>
+  <si>
+    <t>tempest.scenario.manager</t>
+  </si>
+  <si>
+    <t>scenario.manager</t>
+  </si>
+  <si>
+    <t>tempest.scenario.resource_reservation_scenario</t>
+  </si>
+  <si>
+    <t>scenario.resource_reservation_scenario</t>
+  </si>
+  <si>
+    <t>tempest.scenario.test_network_basic_ops</t>
+  </si>
+  <si>
+    <t>scenario.test_network_basic_ops</t>
+  </si>
+  <si>
+    <t>tempest.scenario.utils</t>
+  </si>
+  <si>
+    <t>scenario.utils</t>
+  </si>
+  <si>
+    <t>blazar,intel-nfv-ci-tests</t>
+  </si>
+  <si>
+    <t>tempest.services.baremetal</t>
+  </si>
+  <si>
+    <t>services.baremetal</t>
+  </si>
+  <si>
+    <t>tempest.services.botoclients</t>
+  </si>
+  <si>
+    <t>services.botoclients</t>
+  </si>
+  <si>
+    <t>tempest.services.compute</t>
+  </si>
+  <si>
+    <t>services.compute</t>
+  </si>
+  <si>
+    <t>tempest.services.data_processing</t>
+  </si>
+  <si>
+    <t>services.data_processing</t>
+  </si>
+  <si>
+    <t>tempest.services.database</t>
+  </si>
+  <si>
+    <t>services.database</t>
+  </si>
+  <si>
+    <t>tempest.services.dns</t>
+  </si>
+  <si>
+    <t>services.dns</t>
+  </si>
+  <si>
+    <t>tempest.services.identity</t>
+  </si>
+  <si>
+    <t>services.identity</t>
+  </si>
+  <si>
+    <t>designate,neutron,neutron-lbaas,neutron-vpnaas</t>
+  </si>
+  <si>
+    <t>tempest.services.image</t>
+  </si>
+  <si>
+    <t>services.image</t>
+  </si>
+  <si>
+    <t>ceilometer,designate</t>
+  </si>
+  <si>
+    <t>tempest.services.network</t>
+  </si>
+  <si>
+    <t>services.network</t>
+  </si>
+  <si>
+    <t>congress,designate,networking-fortinet,neutron-lbaas,vmware-nsx</t>
+  </si>
+  <si>
+    <t>tempest.services.object_storage</t>
+  </si>
+  <si>
+    <t>services.object_storage</t>
+  </si>
+  <si>
+    <t>tempest.services.orchestration</t>
+  </si>
+  <si>
+    <t>services.orchestration</t>
+  </si>
+  <si>
+    <t>tempest.services.queuing</t>
+  </si>
+  <si>
+    <t>services.queuing</t>
+  </si>
+  <si>
+    <t>tempest.services.telemetry</t>
+  </si>
+  <si>
+    <t>services.telemetry</t>
+  </si>
+  <si>
+    <t>tempest.services.volume</t>
+  </si>
+  <si>
+    <t>services.volume</t>
+  </si>
+  <si>
+    <t>tempest.test.attr</t>
+  </si>
+  <si>
+    <t>test.attr</t>
+  </si>
+  <si>
+    <t>murano</t>
+  </si>
+  <si>
+    <t>tempest.test_discover.plugins</t>
+  </si>
+  <si>
+    <t>test_discover.plugins</t>
+  </si>
+  <si>
+    <t>tempest.thirdparty.boto</t>
+  </si>
+  <si>
+    <t>thirdparty.boto</t>
+  </si>
+  <si>
+    <t>cerberus,cue,mistral,solum</t>
+  </si>
+  <si>
+    <t>tempest.lib.auth.AuthProvider</t>
+  </si>
+  <si>
+    <t>lib.auth.AuthProvider</t>
+  </si>
+  <si>
+    <t>tempest.lib.auth.KeystoneV2AuthProvider</t>
+  </si>
+  <si>
+    <t>lib.auth.KeystoneV2AuthProvider</t>
+  </si>
+  <si>
+    <t>tempest.lib.auth.KeystoneV2Credentials</t>
+  </si>
+  <si>
+    <t>lib.auth.KeystoneV2Credentials</t>
+  </si>
+  <si>
+    <t>tempest.lib.cli.base</t>
+  </si>
+  <si>
+    <t>lib.cli.base</t>
+  </si>
+  <si>
+    <t>tempest.lib.cli.output_parser</t>
+  </si>
+  <si>
+    <t>lib.cli.output_parser</t>
+  </si>
+  <si>
+    <t>python-cinderclient,python-designateclient,python-heatclient,python-manilaclient,python-muranoclient</t>
+  </si>
+  <si>
+    <t>tempest.lib.common.api_version_utils</t>
+  </si>
+  <si>
+    <t>lib.common.api_version_utils</t>
+  </si>
+  <si>
+    <t>tempest.lib.common.http</t>
+  </si>
+  <si>
+    <t>lib.common.http</t>
+  </si>
+  <si>
+    <t>solum</t>
+  </si>
+  <si>
+    <t>tempest.lib.common.rest_client</t>
+  </si>
+  <si>
+    <t>lib.common.rest_client</t>
+  </si>
+  <si>
+    <t>aodh,ceilometer,cerberus,congress,cue,designate,freezer-api,gce-api,ironic,magnum,manila,mistral,monasca-api,murano,networking-l2gw,networking-vsphere,neutron,neutron-lbaas,senlin,solum,watcher,zaqar</t>
+  </si>
+  <si>
+    <t>tempest.lib.common.ssh</t>
+  </si>
+  <si>
+    <t>lib.common.ssh</t>
+  </si>
+  <si>
+    <t>ec2-api,networking-fortinet,networking-vsphere,neutron-fwaas,sahara-tests</t>
+  </si>
+  <si>
+    <t>tempest.lib.common.utils</t>
+  </si>
+  <si>
+    <t>lib.common.utils</t>
+  </si>
+  <si>
+    <t>astara,barbican,cerberus,congress,cue,ec2-api,gce-api,intel-nfv-ci-tests,ironic,magnum,manila,networking-fortinet,networking-l2gw,networking-plumgrid,networking-vsphere,neutron,neutron-fwaas,neutron-lbaas,neutron-vpnaas,python-heatclient,python-manilaclient,python-openstackclient,sahara,senlin,tap-as-a-service,vmware-nsx,watcher,zaqar</t>
+  </si>
+  <si>
+    <t>aodh,ceilometer,cerberus,congress,cue,designate,ec2-api,intel-nfv-ci-tests,ironic,magnum,manila,mistral,monasca-api,monasca-log-api,murano,networking-bgpvpn,networking-fortinet,networking-l2gw,networking-plumgrid,networking-vsphere,neutron,neutron-fwaas,neutron-lbaas,neutron-vpnaas,python-aodhclient,python-cinderclient,python-glanceclient,python-gnocchiclient,python-heatclient,python-ironicclient,python-manilaclient,python-mistralclient,python-muranoclient,python-neutronclient,python-novaclient,python-saharaclient,sahara-tests,senlin,solum,tap-as-a-service,vmware-nsx,watcher,zaqar</t>
+  </si>
+  <si>
+    <t>tempest.lib.exceptions.CommandFailed</t>
+  </si>
+  <si>
+    <t>lib.exceptions.CommandFailed</t>
+  </si>
+  <si>
+    <t>python-designateclient</t>
+  </si>
+  <si>
+    <t>tempest.lib.exceptions.Conflict</t>
+  </si>
+  <si>
+    <t>lib.exceptions.Conflict</t>
+  </si>
+  <si>
+    <t>tempest.lib.exceptions.Forbidden</t>
+  </si>
+  <si>
+    <t>lib.exceptions.Forbidden</t>
+  </si>
+  <si>
+    <t>tempest.lib.exceptions.NotFound</t>
+  </si>
+  <si>
+    <t>lib.exceptions.NotFound</t>
+  </si>
+  <si>
+    <t>tempest.lib.services.compute</t>
+  </si>
+  <si>
+    <t>lib.services.compute</t>
+  </si>
+  <si>
+    <t>ceilometer,cue</t>
+  </si>
+  <si>
+    <t>tempest.lib.services.network</t>
+  </si>
+  <si>
+    <t>lib.services.network</t>
+  </si>
+  <si>
+    <t>networking-bgpvpn,networking-fortinet,neutron-fwaas,tap-as-a-service,vmware-nsx</t>
+  </si>
+  <si>
+    <t>tempest.lib.tests.base</t>
+  </si>
+  <si>
+    <t>lib.tests.base</t>
+  </si>
+  <si>
+    <t>manila</t>
+  </si>
+  <si>
+    <t>sahara</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>monasca-api</t>
+  </si>
+  <si>
+    <t>neutron-fwaas</t>
+  </si>
+  <si>
+    <t>tap-as-a-service</t>
+  </si>
+  <si>
+    <t>networking-bgpvpn</t>
+  </si>
+  <si>
+    <t>networking-plumgrid</t>
+  </si>
+  <si>
+    <t>gce-api</t>
+  </si>
+  <si>
+    <t>magnum</t>
+  </si>
+  <si>
+    <t>mistral</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>ceilometer</t>
+  </si>
+  <si>
+    <t>watcher</t>
+  </si>
+  <si>
+    <t>aodh</t>
+  </si>
+  <si>
+    <t>zaqar</t>
+  </si>
+  <si>
+    <t>freezer-api</t>
+  </si>
+  <si>
+    <t>networking-fortinet</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>keystone</t>
+  </si>
+  <si>
+    <t>senlin</t>
+  </si>
+  <si>
+    <t>gnocchi</t>
+  </si>
+  <si>
+    <t>sahara-tests</t>
+  </si>
+  <si>
+    <t>neutron</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
 </sst>
 </file>
@@ -400,11 +951,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -421,12 +976,54 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="32">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -456,10 +1053,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
@@ -478,6 +1075,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF950004"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -506,12 +1116,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Repos with 1+ imports vs. Total imports </a:t>
+              <a:t>Repos with 1+ imports </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -536,6 +1145,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="800000"/>
+            </a:solidFill>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -590,113 +1202,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pad_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>common</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>clients</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>scenario</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>api</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>services</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tempest!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -710,226 +1250,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2143737544"/>
-        <c:axId val="-2143582440"/>
-      </c:barChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pad_total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>common</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>clients</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>scenario</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>api</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>services</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tempest!$E$2:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-              <a:tileRect/>
-            </a:gradFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>common</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>clients</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>scenario</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>api</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>services</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tempest!$F$2:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>196.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2112788520"/>
-        <c:axId val="-2112818808"/>
+        <c:axId val="132278720"/>
+        <c:axId val="516678008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143737544"/>
+        <c:axId val="132278720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -943,7 +1274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143582440"/>
+        <c:crossAx val="516678008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -951,7 +1282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143582440"/>
+        <c:axId val="516678008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,65 +1300,17 @@
             <a:pPr>
               <a:defRPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="800000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143737544"/>
+        <c:crossAx val="132278720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="-2112818808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2112788520"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="-2112788520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112818808"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1061,12 +1344,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Repos with 1+ imports vs. Total imports </a:t>
+              <a:t>Total imports (vs. Report</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with 1+ import)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1091,6 +1378,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="800000">
+                <a:alpha val="20000"/>
+              </a:srgbClr>
+            </a:solidFill>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1145,40 +1437,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,15 +1481,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>tempest!$F$1</c:f>
+              <c:f>tempest!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total_count</c:v>
+                  <c:v>pad_count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1245,46 +1540,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempest!$F$2:$F$13</c:f>
+              <c:f>tempest!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>196.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1298,16 +1557,214 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2110247832"/>
-        <c:axId val="-2113631192"/>
+        <c:axId val="316628304"/>
+        <c:axId val="316622816"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pad_total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>api</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>common</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>api</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>openstack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="316626736"/>
+        <c:axId val="316624384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110247832"/>
+        <c:axId val="316628304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1321,7 +1778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113631192"/>
+        <c:crossAx val="316622816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1329,7 +1786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113631192"/>
+        <c:axId val="316622816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,17 +1804,66 @@
             <a:pPr>
               <a:defRPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="800000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110247832"/>
+        <c:crossAx val="316628304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="316624384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316626736"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="316626736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="316624384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1391,1014 +1897,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Repos with 1+ imports vs. Total imports </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$2,tempest!$F$2)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>196.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$3,tempest!$F$3)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$4,tempest!$F$4)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>common</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$5,tempest!$F$5)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>clients</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$6,tempest!$F$6)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$7,tempest!$F$7)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>scenario</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$8,tempest!$F$8)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>manager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$9,tempest!$F$9)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>api</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$10,tempest!$F$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>services</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$11,tempest!$F$11)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>126.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>auth</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$12,tempest!$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(tempest!$C$1,tempest!$F$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(tempest!$C$13,tempest!$F$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2110782328"/>
-        <c:axId val="-2108522344"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2110782328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" cap="small"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2108522344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2108522344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2110782328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="110"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="10"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Repos with 1+ imports </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>common</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>clients</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>scenario</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>api</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>services</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tempest!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="110"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="10"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total imports </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>common</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>clients</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>scenario</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>api</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>services</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tempest!$F$2:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>196.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Count of Repos with 1+ imports per tempest.lib namespace</a:t>
+              <a:t>Repos with 1+ imports per tempest.lib namespace</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2434,6 +1933,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -2476,89 +1980,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lib!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pad count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lib!$B$2:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>lib.exceptions</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>lib.common</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>lib.cli</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>lib.decorators</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lib.base</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>lib.services</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>lib.auth</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>lib.tests</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lib!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2572,190 +2016,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2123201592"/>
-        <c:axId val="2123197832"/>
-      </c:barChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lib!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pad total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lib!$B$2:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>lib.exceptions</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>lib.common</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>lib.cli</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>lib.decorators</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lib.base</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>lib.services</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>lib.auth</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>lib.tests</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lib!$E$2:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lib!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-              <a:tileRect/>
-            </a:gradFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lib!$B$2:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>lib.exceptions</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>lib.common</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>lib.cli</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>lib.decorators</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lib.base</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>lib.services</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>lib.auth</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>lib.tests</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lib!$F$2:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>218.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2129953480"/>
-        <c:axId val="-2142960296"/>
+        <c:axId val="316621640"/>
+        <c:axId val="316620856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123201592"/>
+        <c:axId val="316621640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2769,7 +2040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123197832"/>
+        <c:crossAx val="316620856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2777,7 +2048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123197832"/>
+        <c:axId val="316620856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,24 +2066,274 @@
             <a:pPr>
               <a:defRPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123201592"/>
+        <c:crossAx val="316621640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="-2142960296"/>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Repos with 1+ imports </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest_detailed!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="950004"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest_detailed!$B$2:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover.plugins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>common.utils</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario.manager</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>common.credentials_factory</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>api.network</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>common.waiters</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>services.network</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>services.identity</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>common.compute</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>common.dynamic_creds</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>openstack.common</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>scenario.utils</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>services.image</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>services.object_storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest_detailed!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="316622424"/>
+        <c:axId val="316623208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="316622424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" cap="small"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316623208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316623208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2824,9 +2345,239 @@
             <a:pPr>
               <a:defRPr>
                 <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316622424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Repos with 1+ imports per tempest.lib namespace</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lib_detailed!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lib_detailed!$B$2:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>lib.exceptions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lib.common.utils</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lib.common.rest_client</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lib.cli.base</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>lib.decorators</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lib.base</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lib.cli.output_parser</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lib.common.ssh</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lib.services.network</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>lib.auth</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>lib.services.compute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lib_detailed!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="316625952"/>
+        <c:axId val="316626344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="316625952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" cap="small"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316626344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316626344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:defRPr>
@@ -2834,26 +2585,1607 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129953480"/>
-        <c:crosses val="max"/>
+        <c:crossAx val="316625952"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Repos with 1+ imports per tempest.lib namespace</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lib_detailed!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lib_detailed!$B$2:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>lib.exceptions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lib.common.utils</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lib.common.rest_client</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lib.cli.base</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>lib.decorators</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lib.base</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lib.cli.output_parser</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lib.common.ssh</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lib.services.network</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>lib.auth</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>lib.services.compute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lib_detailed!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="328644224"/>
+        <c:axId val="328640304"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2129953480"/>
+        <c:axId val="328644224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142960296"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" cap="small"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328640304"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:valAx>
+        <c:axId val="328640304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328644224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of tempest plugins over time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8029550024888462E-2"/>
+          <c:y val="8.5071844265759547E-2"/>
+          <c:w val="0.87245748278490132"/>
+          <c:h val="0.8642790587644209"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Count of tempest plugins</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="950004"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D1692F65-C602-42C2-8CC1-5BE4BED1490B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{172010D8-5E24-4124-B96B-234428976E36}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{84674DA4-1934-4910-B8CE-8A0DEC9614F1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{162073F8-6BDF-42DE-A8A3-39F4D7DD24C3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DE4A5972-F05B-4067-8BBA-B2C3E69EEB92}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3033BF66-DF60-4E46-9E4E-28A9C67A2F11}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4BC13D3F-77C7-4154-BDDA-BD33F0E87B31}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0A4D2DE2-CA9C-46FC-94AA-64D9F2A9735B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A22172FA-F021-4DCB-93CD-985074E83752}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B8462B89-C6EF-4695-9AFB-A9F7251C7864}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{62995BEC-B4EB-42D4-9E92-A87D6EED943E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ED44AD29-FBB3-4551-888B-93FB386877C1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2455A47F-EC5C-440E-9139-4E27EED5D92C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{273EB385-E1C9-444A-B842-C8E2272B7755}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DF244FE6-1DD6-47B4-9986-0989D7F47589}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2BB75744-A4E5-45E7-86B7-F9DDF7571FED}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{04BD6133-FC86-4646-BC0E-CA9AB4A819FF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{63040596-AB0D-4040-AD0C-93A4B986745F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DEB9B105-69B1-4C9F-AD0E-6816EA00232B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{27C502B4-7B8D-451D-BDB7-0DC3D09156F7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{95B4827C-D375-41EF-B34A-866D8B248E9C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EB5E429A-A3AE-4EE5-8693-6476ED18E159}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4922B888-965B-4FA3-B063-D72D1C0D4B19}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{05A35097-1D17-44D8-A499-899B25EC961D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BF3B0545-566C-4DA3-A95A-8A9335DB712C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EDB86149-065F-44D7-82EC-272F2A37400C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E5BB5E77-876F-4A93-8444-B0F5335DB916}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5CAF23E5-7689-4A58-BC0B-E4A7D566B2EB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7F3F7560-54FB-490D-BC37-C63B332314C3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>plugins_over_time!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>42252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42360</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42360</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42362</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42387</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42387</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42390</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42390</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42391</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42418</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42432</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42450</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42468</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42471</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42472</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plugins_over_time!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>plugins_over_time!$C$2:$C$30</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="29"/>
+                  <c:pt idx="0">
+                    <c:v>manila</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>sahara</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>congress</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>monasca-api</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>neutron-fwaas</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>murano</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ec2-api</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>tap-as-a-service</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>networking-bgpvpn</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>monasca-log-api</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>networking-plumgrid</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>gce-api</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>magnum</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>mistral</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>intel-nfv-ci-tests</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>ironic</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>ceilometer</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>vmware-nsx</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>watcher</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>aodh</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>zaqar</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>freezer-api</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>networking-fortinet</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>freezer</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>keystone</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>senlin</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>gnocchi</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>sahara-tests</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>neutron</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="328640696"/>
+        <c:axId val="328641088"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="328640696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="328641088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="328641088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="328640696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2888,7 +4220,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2899,10 +4231,46 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="7644" divId="tempest_deps_7644" sourceType="chart" destinationFile="Z:\git\github.com\andreafrittoli\tempest_stable_interfaces\data\tmp\tempest_deps.htm"/>
+  </webPublishItems>
 </chartsheet>
 </file>
 
@@ -2964,7 +4332,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9211519" cy="5618544"/>
+    <xdr:ext cx="8659813" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2989,23 +4357,15 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8659813" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3018,25 +4378,20 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8659813" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3045,20 +4400,47 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9201656" cy="5609816"/>
+    <xdr:ext cx="8659813" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8654612" cy="6281573"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3082,48 +4464,94 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_tempest_imports" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_tempest_imports" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_lib_imports" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_lib_imports" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_tempest_imports_detailed" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_lib_imports_detailed" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tempest_plugins" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:G19"/>
   <sortState ref="A2:E19">
     <sortCondition descending="1" ref="C1:C19"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="import" dataDxfId="17"/>
-    <tableColumn id="2" name="namespace" dataDxfId="16"/>
-    <tableColumn id="3" name="count" dataDxfId="15"/>
-    <tableColumn id="7" name="pad_count" dataDxfId="0"/>
-    <tableColumn id="6" name="pad_total" dataDxfId="1"/>
-    <tableColumn id="4" name="total_count" dataDxfId="14"/>
-    <tableColumn id="5" name="repos" dataDxfId="13"/>
+    <tableColumn id="1" name="import" dataDxfId="29"/>
+    <tableColumn id="2" name="namespace" dataDxfId="28"/>
+    <tableColumn id="3" name="count" dataDxfId="27"/>
+    <tableColumn id="7" name="pad_count" dataDxfId="26"/>
+    <tableColumn id="6" name="pad_total" dataDxfId="25"/>
+    <tableColumn id="4" name="total_count" dataDxfId="24"/>
+    <tableColumn id="5" name="repos" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:G9"/>
   <sortState ref="A2:E9">
     <sortCondition descending="1" ref="C1:C9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="import" dataDxfId="10"/>
-    <tableColumn id="2" name="namespace" dataDxfId="9"/>
-    <tableColumn id="3" name="count" dataDxfId="8"/>
-    <tableColumn id="7" name="pad count" dataDxfId="2"/>
-    <tableColumn id="6" name="pad total" dataDxfId="3"/>
-    <tableColumn id="4" name="total_count" dataDxfId="7"/>
-    <tableColumn id="5" name="repos" dataDxfId="6"/>
+    <tableColumn id="1" name="import" dataDxfId="20"/>
+    <tableColumn id="2" name="namespace" dataDxfId="19"/>
+    <tableColumn id="3" name="count" dataDxfId="18"/>
+    <tableColumn id="7" name="pad count" dataDxfId="17"/>
+    <tableColumn id="6" name="pad total" dataDxfId="16"/>
+    <tableColumn id="4" name="total_count" dataDxfId="15"/>
+    <tableColumn id="5" name="repos" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:E51"/>
+  <sortState ref="A2:E51">
+    <sortCondition descending="1" ref="C1:C51"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="import" dataDxfId="11"/>
+    <tableColumn id="2" name="namespace" dataDxfId="10"/>
+    <tableColumn id="3" name="count" dataDxfId="9"/>
+    <tableColumn id="4" name="total_count" dataDxfId="8"/>
+    <tableColumn id="5" name="repos" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E22"/>
+  <sortState ref="A2:E22">
+    <sortCondition descending="1" ref="C1:C22"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="import" dataDxfId="4"/>
+    <tableColumn id="2" name="namespace" dataDxfId="3"/>
+    <tableColumn id="3" name="count" dataDxfId="2"/>
+    <tableColumn id="4" name="total_count" dataDxfId="1"/>
+    <tableColumn id="5" name="repos" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3455,17 +4883,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.3125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="0.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="0.8125" customWidth="1"/>
+    <col min="6" max="6" width="13.1875" customWidth="1"/>
+    <col min="7" max="7" width="80.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="141.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3488,7 +4916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75">
+    <row r="2" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -3507,7 +4935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75">
+    <row r="3" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3526,7 +4954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75">
+    <row r="4" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3545,7 +4973,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -3564,7 +4992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3583,7 +5011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -3602,7 +5030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -3621,7 +5049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -3640,7 +5068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3659,7 +5087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -3678,7 +5106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3697,7 +5125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3716,7 +5144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3735,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3754,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -3773,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -3792,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -3811,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3845,42 +5273,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1875" customWidth="1"/>
+    <col min="7" max="7" width="80.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3903,7 +5311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="120">
+    <row r="2" spans="1:7" ht="126" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -3922,7 +5330,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75">
+    <row r="3" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -3941,7 +5349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60">
+    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -3960,7 +5368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -3979,7 +5387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -3998,7 +5406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -4017,7 +5425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -4036,7 +5444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -4066,4 +5474,1662 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A22:XFD51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.1875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="80.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.8125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>196</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>305</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="2">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>57</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="35.6875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.1875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="80.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.8125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="126" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2">
+        <v>218</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="2">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2">
+        <v>176</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="3.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="3">
+        <v>42252</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>42268</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="3">
+        <v>42293</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="3">
+        <v>42296</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="3">
+        <v>42314</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="3">
+        <v>42324</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
+        <v>42328</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
+        <v>42338</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" s="3">
+        <v>42349</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A15" s="3">
+        <v>42362</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A16" s="3">
+        <v>42387</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" s="3">
+        <v>42387</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18" s="3">
+        <v>42390</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19" s="3">
+        <v>42390</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" s="3">
+        <v>42391</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" s="3">
+        <v>42405</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22" s="3">
+        <v>42418</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23" s="3">
+        <v>42432</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" s="3">
+        <v>42444</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" s="3">
+        <v>42450</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26" s="3">
+        <v>42460</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27" s="3">
+        <v>42468</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A28" s="3">
+        <v>42471</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A29" s="3">
+        <v>42472</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30" s="3">
+        <v>42474</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/tempest_deps.xlsx
+++ b/data/tempest_deps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1823" yWindow="518" windowWidth="31403" windowHeight="19178" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="1823" yWindow="518" windowWidth="31403" windowHeight="19178" tabRatio="500" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="tempest" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="lib_detailed_graph_full" sheetId="21" r:id="rId10"/>
     <sheet name="plugins_over_time" sheetId="22" r:id="rId11"/>
     <sheet name="plugins_over_time_graph" sheetId="23" r:id="rId12"/>
+    <sheet name="cli_over_time" sheetId="24" r:id="rId13"/>
+    <sheet name="cli_over_time_graph" sheetId="25" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="repo_per_lib_imports" localSheetId="3">lib!$A$1:$G$9</definedName>
@@ -33,6 +35,10 @@
     <definedName name="tempest_plugins" localSheetId="10">plugins_over_time!$A$2:$C$30</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="1252"/>
+  <webPublishObjects count="1">
+    <webPublishObject id="20872" divId="tempest_deps_20872" destinationFile="Z:\git\github.com\andreafrittoli\tempest_stable_interfaces\data\tempest_deps.htm" autoRepublish="1"/>
+  </webPublishObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -129,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="267">
   <si>
     <t>blazar</t>
   </si>
@@ -888,6 +894,48 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>Repos running CLI tests</t>
+  </si>
+  <si>
+    <t>python-aodhclient</t>
+  </si>
+  <si>
+    <t>python-ceilometerclient</t>
+  </si>
+  <si>
+    <t>python-cinderclient</t>
+  </si>
+  <si>
+    <t>python-glanceclient</t>
+  </si>
+  <si>
+    <t>python-gnocchiclient</t>
+  </si>
+  <si>
+    <t>python-heatclient</t>
+  </si>
+  <si>
+    <t>python-ironicclient</t>
+  </si>
+  <si>
+    <t>python-manilaclient</t>
+  </si>
+  <si>
+    <t>python-mistralclient</t>
+  </si>
+  <si>
+    <t>python-muranoclient</t>
+  </si>
+  <si>
+    <t>python-neutronclient</t>
+  </si>
+  <si>
+    <t>python-novaclient</t>
+  </si>
+  <si>
+    <t>python-saharaclient</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1024,10 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -1121,6 +1172,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1250,11 +1302,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132278720"/>
-        <c:axId val="516678008"/>
+        <c:axId val="302826728"/>
+        <c:axId val="302827120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132278720"/>
+        <c:axId val="302826728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,7 +1326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516678008"/>
+        <c:crossAx val="302827120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1282,7 +1334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="516678008"/>
+        <c:axId val="302827120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132278720"/>
+        <c:crossAx val="302826728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,6 +1406,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1557,8 +1610,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316628304"/>
-        <c:axId val="316622816"/>
+        <c:axId val="302827904"/>
+        <c:axId val="302828688"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1754,11 +1807,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316626736"/>
-        <c:axId val="316624384"/>
+        <c:axId val="302829472"/>
+        <c:axId val="302829080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316628304"/>
+        <c:axId val="302827904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316622816"/>
+        <c:crossAx val="302828688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1786,7 +1839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316622816"/>
+        <c:axId val="302828688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,12 +1864,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316628304"/>
+        <c:crossAx val="302827904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316624384"/>
+        <c:axId val="302829080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,12 +1895,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316626736"/>
+        <c:crossAx val="302829472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="316626736"/>
+        <c:axId val="302829472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316624384"/>
+        <c:crossAx val="302829080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2016,11 +2069,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316621640"/>
-        <c:axId val="316620856"/>
+        <c:axId val="304619392"/>
+        <c:axId val="304620176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316621640"/>
+        <c:axId val="304619392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316620856"/>
+        <c:crossAx val="304620176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2048,7 +2101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316620856"/>
+        <c:axId val="304620176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316621640"/>
+        <c:crossAx val="304619392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2295,11 +2348,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316622424"/>
-        <c:axId val="316623208"/>
+        <c:axId val="304620568"/>
+        <c:axId val="304618608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316622424"/>
+        <c:axId val="304620568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316623208"/>
+        <c:crossAx val="304618608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2327,7 +2380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316623208"/>
+        <c:axId val="304618608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,7 +2405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316622424"/>
+        <c:crossAx val="304620568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2526,11 +2579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316625952"/>
-        <c:axId val="316626344"/>
+        <c:axId val="304619784"/>
+        <c:axId val="304615864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316625952"/>
+        <c:axId val="304619784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316626344"/>
+        <c:crossAx val="304615864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2558,7 +2611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316626344"/>
+        <c:axId val="304615864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +2638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316625952"/>
+        <c:crossAx val="304619784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2759,11 +2812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="328644224"/>
-        <c:axId val="328640304"/>
+        <c:axId val="304617824"/>
+        <c:axId val="304622136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="328644224"/>
+        <c:axId val="304617824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,7 +2836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328640304"/>
+        <c:crossAx val="304622136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2791,7 +2844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328640304"/>
+        <c:axId val="304622136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,7 +2871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328644224"/>
+        <c:crossAx val="304617824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2904,7 +2957,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1692F65-C602-42C2-8CC1-5BE4BED1490B}" type="CELLRANGE">
+                    <a:fld id="{7E5E8C8B-903E-431B-A64F-CB8F37057D64}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2935,7 +2988,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{172010D8-5E24-4124-B96B-234428976E36}" type="CELLRANGE">
+                    <a:fld id="{2EB8B691-707F-4541-88AD-99C45A758A75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2967,7 +3020,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84674DA4-1934-4910-B8CE-8A0DEC9614F1}" type="CELLRANGE">
+                    <a:fld id="{9EB7A7DB-2D83-45E2-86E5-19EC29B1C5B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2999,7 +3052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{162073F8-6BDF-42DE-A8A3-39F4D7DD24C3}" type="CELLRANGE">
+                    <a:fld id="{EAA2EF93-0CF8-4A84-87F7-17BB77E69E5B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3031,7 +3084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE4A5972-F05B-4067-8BBA-B2C3E69EEB92}" type="CELLRANGE">
+                    <a:fld id="{14337F6F-7492-4FD1-998F-E44856835700}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3063,7 +3116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3033BF66-DF60-4E46-9E4E-28A9C67A2F11}" type="CELLRANGE">
+                    <a:fld id="{A014C59C-70EC-437B-807A-F615653ECF62}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3095,7 +3148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BC13D3F-77C7-4154-BDDA-BD33F0E87B31}" type="CELLRANGE">
+                    <a:fld id="{277573DC-B4C2-43E5-ABF1-DE36C914CA54}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3127,7 +3180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A4D2DE2-CA9C-46FC-94AA-64D9F2A9735B}" type="CELLRANGE">
+                    <a:fld id="{6D751515-D505-45D4-8467-8BBF20DEF99A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3159,7 +3212,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A22172FA-F021-4DCB-93CD-985074E83752}" type="CELLRANGE">
+                    <a:fld id="{50DFD2A4-0505-4499-82BB-7E8346584CF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3191,7 +3244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8462B89-C6EF-4695-9AFB-A9F7251C7864}" type="CELLRANGE">
+                    <a:fld id="{DB926313-05B0-4D67-B410-09EBF569F337}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3223,7 +3276,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62995BEC-B4EB-42D4-9E92-A87D6EED943E}" type="CELLRANGE">
+                    <a:fld id="{9A6FD0E1-9E70-44E1-BE41-2634780EA35B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3255,7 +3308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED44AD29-FBB3-4551-888B-93FB386877C1}" type="CELLRANGE">
+                    <a:fld id="{36A24CE9-772A-42B1-A8AA-DD8DA3934B1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3287,7 +3340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2455A47F-EC5C-440E-9139-4E27EED5D92C}" type="CELLRANGE">
+                    <a:fld id="{5EE1EF31-4F0A-4002-9042-4E398F1295C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3319,7 +3372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{273EB385-E1C9-444A-B842-C8E2272B7755}" type="CELLRANGE">
+                    <a:fld id="{A83EBEED-854E-4F5D-8538-C78B6BC44BDC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3351,7 +3404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF244FE6-1DD6-47B4-9986-0989D7F47589}" type="CELLRANGE">
+                    <a:fld id="{F398EA54-835B-455F-B289-A14BCE8F4DD3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3383,7 +3436,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BB75744-A4E5-45E7-86B7-F9DDF7571FED}" type="CELLRANGE">
+                    <a:fld id="{0AF2BE6D-CF7A-4F3B-A956-3E04DBAC46D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3415,7 +3468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04BD6133-FC86-4646-BC0E-CA9AB4A819FF}" type="CELLRANGE">
+                    <a:fld id="{CF4D53F2-E1A3-478B-B71C-A88AD3AFC40E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3447,7 +3500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63040596-AB0D-4040-AD0C-93A4B986745F}" type="CELLRANGE">
+                    <a:fld id="{668D99BB-70C4-438B-B1A3-84AB596F9670}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3479,7 +3532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEB9B105-69B1-4C9F-AD0E-6816EA00232B}" type="CELLRANGE">
+                    <a:fld id="{6443DD75-0887-4918-92D2-C37AAFC163BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3511,7 +3564,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27C502B4-7B8D-451D-BDB7-0DC3D09156F7}" type="CELLRANGE">
+                    <a:fld id="{6E70BE38-6AFE-42D8-B83C-AA005551B3BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3543,7 +3596,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95B4827C-D375-41EF-B34A-866D8B248E9C}" type="CELLRANGE">
+                    <a:fld id="{0A9BBA19-630D-4E56-97B7-DF785A50A112}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3575,7 +3628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB5E429A-A3AE-4EE5-8693-6476ED18E159}" type="CELLRANGE">
+                    <a:fld id="{0DFF752D-7F0B-4D87-A71B-FF801FD9B89A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3607,7 +3660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4922B888-965B-4FA3-B063-D72D1C0D4B19}" type="CELLRANGE">
+                    <a:fld id="{628EC5BD-91FC-45B3-97C8-DF1E870E5474}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3639,7 +3692,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05A35097-1D17-44D8-A499-899B25EC961D}" type="CELLRANGE">
+                    <a:fld id="{B2DDCC46-9524-4940-8CCB-57B997B4B4F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3671,7 +3724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF3B0545-566C-4DA3-A95A-8A9335DB712C}" type="CELLRANGE">
+                    <a:fld id="{85D58691-2AC5-41DF-BECF-FB1ABDF7CC91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3703,7 +3756,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDB86149-065F-44D7-82EC-272F2A37400C}" type="CELLRANGE">
+                    <a:fld id="{125B2B14-9840-444B-A02F-F6F76A179AEC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3735,7 +3788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5BB5E77-876F-4A93-8444-B0F5335DB916}" type="CELLRANGE">
+                    <a:fld id="{08CC9EA7-E96A-4FD9-AD31-CBDF00DD7E01}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3767,7 +3820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CAF23E5-7689-4A58-BC0B-E4A7D566B2EB}" type="CELLRANGE">
+                    <a:fld id="{B0D1D94E-DD44-4B09-A807-9ED9D4F6E324}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3799,7 +3852,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F3F7560-54FB-490D-BC37-C63B332314C3}" type="CELLRANGE">
+                    <a:fld id="{A5A68AD9-DD1C-423E-AA98-228CEE0065E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4150,11 +4203,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328640696"/>
-        <c:axId val="328641088"/>
+        <c:axId val="304578320"/>
+        <c:axId val="304576752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="328640696"/>
+        <c:axId val="304578320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,14 +4217,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328641088"/>
+        <c:crossAx val="304576752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="328641088"/>
+        <c:axId val="304576752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +4235,764 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328640696"/>
+        <c:crossAx val="304578320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of CLI tests over time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8029550024888462E-2"/>
+          <c:y val="8.5071844265759547E-2"/>
+          <c:w val="0.87245748278490132"/>
+          <c:h val="0.79155173785095045"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cli_over_time!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Repos running CLI tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="950004"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8DBB8D78-036D-4FC2-AEA2-DDBF836707BE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5DD84AC6-BE9C-4F85-B2AC-9F688918405F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{37CA2229-7671-49FA-AFCB-9311C22E6530}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1FDB019A-3E63-4AA1-A9DE-2677998F817A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A7593C3F-F06D-4AAE-A3F5-9C070A25562C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BBC477C3-84C5-4F48-9294-4A09C7AF6762}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A76DD7A5-E1E5-4A1E-A93A-6B418997A888}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{884BFD9A-5F45-471C-B14B-95B6F519AA76}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3E3BE5C3-0AB6-4990-9288-64B038A6814F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{10DEA08C-7487-4CCE-BCF7-862272573446}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B26B56F2-C1F5-4AB9-8221-D9D98E4629A2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C9E20DE0-11D7-4E5A-B4F6-023EFED27919}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{523DDBC8-5079-4BC0-BF08-96F5BC26034E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CD92A741-4DB5-440C-9EA7-95567E232F8D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>cli_over_time!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>41955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42307</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cli_over_time!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>cli_over_time!$C$2:$C$15</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>python-manilaclient</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>python-mistralclient</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>python-neutronclient</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>python-saharaclient</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>python-glanceclient</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>python-novaclient</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>python-cinderclient</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>python-muranoclient</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>python-heatclient</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>python-gnocchiclient</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>python-designateclient</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>python-ironicclient</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>python-aodhclient</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>python-ceilometerclient</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="291537904"/>
+        <c:axId val="291538296"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="291537904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291538296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="291538296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291537904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4220,7 +5030,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4271,6 +5081,17 @@
   <webPublishItems count="1">
     <webPublishItem id="7644" divId="tempest_deps_7644" sourceType="chart" destinationFile="Z:\git\github.com\andreafrittoli\tempest_stable_interfaces\data\tmp\tempest_deps.htm"/>
   </webPublishItems>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -4440,7 +5261,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8654612" cy="6281573"/>
+    <xdr:ext cx="8659813" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8659813" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4484,72 +5332,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:G19"/>
   <sortState ref="A2:E19">
     <sortCondition descending="1" ref="C1:C19"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="import" dataDxfId="29"/>
-    <tableColumn id="2" name="namespace" dataDxfId="28"/>
-    <tableColumn id="3" name="count" dataDxfId="27"/>
-    <tableColumn id="7" name="pad_count" dataDxfId="26"/>
-    <tableColumn id="6" name="pad_total" dataDxfId="25"/>
-    <tableColumn id="4" name="total_count" dataDxfId="24"/>
-    <tableColumn id="5" name="repos" dataDxfId="23"/>
+    <tableColumn id="1" name="import" dataDxfId="30"/>
+    <tableColumn id="2" name="namespace" dataDxfId="29"/>
+    <tableColumn id="3" name="count" dataDxfId="28"/>
+    <tableColumn id="7" name="pad_count" dataDxfId="27"/>
+    <tableColumn id="6" name="pad_total" dataDxfId="26"/>
+    <tableColumn id="4" name="total_count" dataDxfId="25"/>
+    <tableColumn id="5" name="repos" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:G9"/>
   <sortState ref="A2:E9">
     <sortCondition descending="1" ref="C1:C9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="import" dataDxfId="20"/>
-    <tableColumn id="2" name="namespace" dataDxfId="19"/>
-    <tableColumn id="3" name="count" dataDxfId="18"/>
-    <tableColumn id="7" name="pad count" dataDxfId="17"/>
-    <tableColumn id="6" name="pad total" dataDxfId="16"/>
-    <tableColumn id="4" name="total_count" dataDxfId="15"/>
-    <tableColumn id="5" name="repos" dataDxfId="14"/>
+    <tableColumn id="1" name="import" dataDxfId="21"/>
+    <tableColumn id="2" name="namespace" dataDxfId="20"/>
+    <tableColumn id="3" name="count" dataDxfId="19"/>
+    <tableColumn id="7" name="pad count" dataDxfId="18"/>
+    <tableColumn id="6" name="pad total" dataDxfId="17"/>
+    <tableColumn id="4" name="total_count" dataDxfId="16"/>
+    <tableColumn id="5" name="repos" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E51" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:E51"/>
   <sortState ref="A2:E51">
     <sortCondition descending="1" ref="C1:C51"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="import" dataDxfId="11"/>
-    <tableColumn id="2" name="namespace" dataDxfId="10"/>
-    <tableColumn id="3" name="count" dataDxfId="9"/>
-    <tableColumn id="4" name="total_count" dataDxfId="8"/>
-    <tableColumn id="5" name="repos" dataDxfId="7"/>
+    <tableColumn id="1" name="import" dataDxfId="12"/>
+    <tableColumn id="2" name="namespace" dataDxfId="11"/>
+    <tableColumn id="3" name="count" dataDxfId="10"/>
+    <tableColumn id="4" name="total_count" dataDxfId="9"/>
+    <tableColumn id="5" name="repos" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:E22"/>
   <sortState ref="A2:E22">
     <sortCondition descending="1" ref="C1:C22"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="import" dataDxfId="4"/>
-    <tableColumn id="2" name="namespace" dataDxfId="3"/>
-    <tableColumn id="3" name="count" dataDxfId="2"/>
-    <tableColumn id="4" name="total_count" dataDxfId="1"/>
-    <tableColumn id="5" name="repos" dataDxfId="0"/>
+    <tableColumn id="1" name="import" dataDxfId="5"/>
+    <tableColumn id="2" name="namespace" dataDxfId="4"/>
+    <tableColumn id="3" name="count" dataDxfId="3"/>
+    <tableColumn id="4" name="total_count" dataDxfId="2"/>
+    <tableColumn id="5" name="repos" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
+  <sortState ref="A2:C15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" name="Repos running CLI tests"/>
+    <tableColumn id="3" name="Label"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6784,7 +7647,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7132,4 +7995,192 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.4375" customWidth="1"/>
+    <col min="3" max="3" width="20.5625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="3">
+        <v>41955</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="3">
+        <v>41960</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>42072</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="3">
+        <v>42087</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="3">
+        <v>42112</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="3">
+        <v>42115</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="3">
+        <v>42128</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
+        <v>42133</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
+        <v>42158</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
+        <v>42244</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" s="3">
+        <v>42270</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" s="3">
+        <v>42307</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" s="3">
+        <v>42472</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A15" s="3">
+        <v>42472</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/tempest_deps.xlsx
+++ b/data/tempest_deps.xlsx
@@ -5,34 +5,31 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\github.com\andreafrittoli\tempest_stable_interfaces\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Host\git\github.com\andreafrittoli\tempest_stable_interfaces\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1823" yWindow="518" windowWidth="31403" windowHeight="19178" tabRatio="500" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="1823" yWindow="518" windowWidth="5858" windowHeight="1928" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="tempest" sheetId="9" r:id="rId1"/>
+    <sheet name="tempest_data" sheetId="26" r:id="rId1"/>
     <sheet name="tempest_graph" sheetId="14" r:id="rId2"/>
-    <sheet name="tempest_graph (2)" sheetId="6" r:id="rId3"/>
-    <sheet name="lib" sheetId="10" r:id="rId4"/>
-    <sheet name="lib_graph" sheetId="15" r:id="rId5"/>
-    <sheet name="tempest_detailed" sheetId="16" r:id="rId6"/>
-    <sheet name="tempest_detailed_graph" sheetId="19" r:id="rId7"/>
-    <sheet name="lib_detailed" sheetId="17" r:id="rId8"/>
-    <sheet name="lib_detailed_graph" sheetId="18" r:id="rId9"/>
-    <sheet name="lib_detailed_graph_full" sheetId="21" r:id="rId10"/>
-    <sheet name="plugins_over_time" sheetId="22" r:id="rId11"/>
-    <sheet name="plugins_over_time_graph" sheetId="23" r:id="rId12"/>
-    <sheet name="cli_over_time" sheetId="24" r:id="rId13"/>
-    <sheet name="cli_over_time_graph" sheetId="25" r:id="rId14"/>
+    <sheet name="lib_data" sheetId="27" r:id="rId3"/>
+    <sheet name="lib_graph" sheetId="15" r:id="rId4"/>
+    <sheet name="tempest_detailed" sheetId="16" r:id="rId5"/>
+    <sheet name="tempest_detailed_graph" sheetId="19" r:id="rId6"/>
+    <sheet name="lib_detailed" sheetId="17" r:id="rId7"/>
+    <sheet name="lib_detailed_graph" sheetId="18" r:id="rId8"/>
+    <sheet name="lib_detailed_graph_full" sheetId="21" r:id="rId9"/>
+    <sheet name="plugins_over_time" sheetId="22" r:id="rId10"/>
+    <sheet name="plugins_over_time_graph" sheetId="23" r:id="rId11"/>
+    <sheet name="cli_over_time" sheetId="24" r:id="rId12"/>
+    <sheet name="cli_over_time_graph" sheetId="25" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="repo_per_lib_imports" localSheetId="3">lib!$A$1:$G$9</definedName>
-    <definedName name="repo_per_lib_imports_detailed" localSheetId="7">lib_detailed!$A$1:$E$22</definedName>
-    <definedName name="repo_per_tempest_imports" localSheetId="0">tempest!$A$1:$G$19</definedName>
-    <definedName name="repo_per_tempest_imports_detailed" localSheetId="5">tempest_detailed!$A$1:$E$51</definedName>
-    <definedName name="tempest_plugins" localSheetId="10">plugins_over_time!$A$2:$C$30</definedName>
+    <definedName name="repo_per_lib_imports_detailed" localSheetId="6">lib_detailed!$A$1:$E$22</definedName>
+    <definedName name="repo_per_tempest_imports_detailed" localSheetId="4">tempest_detailed!$A$1:$E$51</definedName>
+    <definedName name="tempest_plugins" localSheetId="9">plugins_over_time!$A$2:$C$30</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="1252"/>
@@ -49,27 +46,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="dependencies.out" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" firstRow="2" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:dependencies.out" tab="0" semicolon="1">
-      <textFields count="3">
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="repo_per_lib_imports" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports" tab="0" semicolon="1">
-      <textFields count="4">
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField/>
-        <textField type="text"/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" name="repo_per_lib_imports_detailed" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports_detailed" tab="0" semicolon="1">
+  <connection id="1" name="repo_per_lib_imports_detailed" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="\\psf\Host\git\github.com\andreafrittoli\tempest_stable_interfaces\data\repo_per_lib_imports_detailed." tab="0" semicolon="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -79,8 +57,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="repo_per_lib_imports1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports" tab="0" semicolon="1">
+  <connection id="2" name="repo_per_tempest_imports_detailed" type="6" refreshedVersion="5" deleted="1" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="\\psf\Host\git\github.com\andreafrittoli\tempest_stable_interfaces\data\repo_per_tempest_imports_detailed." tab="0" semicolon="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -90,39 +68,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="repo_per_tempest_imports" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_lib_imports" tab="0" semicolon="1">
-      <textFields count="4">
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField/>
-        <textField type="text"/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="6" name="repo_per_tempest_imports_detailed" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_tempest_imports_detailed" tab="0" semicolon="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="7" name="repo_per_tempest_imports1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:repo_per_tempest_imports" tab="0" semicolon="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="8" name="tempest_plugins.dat" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="tempest_plugins.dat" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:git:github.com:andreafrittoli:tempest_stable_interfaces:data:plugins:tempest_plugins.dat" tab="0" space="1" consecutive="1">
       <textFields count="3">
         <textField type="YMD"/>
@@ -135,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="230">
   <si>
     <t>blazar</t>
   </si>
@@ -149,9 +95,6 @@
     <t>tempest.test</t>
   </si>
   <si>
-    <t>tempest.test_discover</t>
-  </si>
-  <si>
     <t>tacker</t>
   </si>
   <si>
@@ -167,21 +110,6 @@
     <t>repos</t>
   </si>
   <si>
-    <t>tempest.api</t>
-  </si>
-  <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>designate,intel-nfv-ci-tests,kingbird,networking-bgpvpn,networking-fortinet,neutron-fwaas,neutron-lbaas,tap-as-a-service,vmware-nsx</t>
-  </si>
-  <si>
-    <t>tempest.api_schema</t>
-  </si>
-  <si>
-    <t>api_schema</t>
-  </si>
-  <si>
     <t>tempest.auth</t>
   </si>
   <si>
@@ -206,21 +134,6 @@
     <t>clients</t>
   </si>
   <si>
-    <t>tempest.cloudscaling</t>
-  </si>
-  <si>
-    <t>cloudscaling</t>
-  </si>
-  <si>
-    <t>tempest.common</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>aodh,ceilometer,congress,designate,ec2-api,freezer-api,gce-api,intel-nfv-ci-tests,ironic,kingbird,magnum,manila,monasca-api,monasca-log-api,murano,networking-bgpvpn,networking-fortinet,neutron-lbaas,sahara-tests,vmware-nsx,watcher,zaqar</t>
-  </si>
-  <si>
     <t>tempest.config</t>
   </si>
   <si>
@@ -254,12 +167,6 @@
     <t>aodh,ceilometer,congress,designate,gce-api,networking-vsphere,neutron,neutron-lbaas,neutron-vpnaas,solum</t>
   </si>
   <si>
-    <t>tempest.openstack</t>
-  </si>
-  <si>
-    <t>openstack</t>
-  </si>
-  <si>
     <t>blazar,designate</t>
   </si>
   <si>
@@ -269,48 +176,21 @@
     <t>resource_reservation_client_manager</t>
   </si>
   <si>
-    <t>tempest.scenario</t>
-  </si>
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
     <t>blazar,congress,intel-nfv-ci-tests,ironic,manila,networking-fortinet,neutron-fwaas,neutron-lbaas,sahara,tap-as-a-service,vmware-nsx,watcher</t>
   </si>
   <si>
-    <t>tempest.services</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>ceilometer,congress,designate,networking-fortinet,neutron,neutron-lbaas,neutron-vpnaas,vmware-nsx</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
-    <t>test_discover</t>
-  </si>
-  <si>
     <t>aodh,ceilometer,congress,ec2-api,freezer,freezer-api,gce-api,gnocchi,intel-nfv-ci-tests,ironic,keystone,kingbird,magnum,manila,mistral,monasca-api,monasca-log-api,murano,networking-bgpvpn,networking-fortinet,networking-plumgrid,neutron-fwaas,sahara,sahara-tests,senlin,tap-as-a-service,tempest-plugin-cookiecutter,vitrage,vmware-nsx,watcher,zaqar</t>
   </si>
   <si>
-    <t>tempest.thirdparty</t>
-  </si>
-  <si>
-    <t>thirdparty</t>
-  </si>
-  <si>
     <t>tempest.lib.auth</t>
   </si>
   <si>
     <t>lib.auth</t>
   </si>
   <si>
-    <t>cerberus,cue,designate,mistral,solum</t>
-  </si>
-  <si>
     <t>tempest.lib.base</t>
   </si>
   <si>
@@ -320,24 +200,9 @@
     <t>cerberus,cue,designate,ec2-api,gce-api,magnum,python-keystoneclient,python-neutronclient,sahara-tests</t>
   </si>
   <si>
-    <t>tempest.lib.cli</t>
-  </si>
-  <si>
-    <t>lib.cli</t>
-  </si>
-  <si>
     <t>python-aodhclient,python-ceilometerclient,python-cinderclient,python-designateclient,python-glanceclient,python-gnocchiclient,python-heatclient,python-ironicclient,python-manilaclient,python-mistralclient,python-muranoclient,python-neutronclient,python-novaclient,python-saharaclient</t>
   </si>
   <si>
-    <t>tempest.lib.common</t>
-  </si>
-  <si>
-    <t>lib.common</t>
-  </si>
-  <si>
-    <t>aodh,astara,barbican,ceilometer,cerberus,congress,cue,designate,ec2-api,freezer-api,gce-api,intel-nfv-ci-tests,ironic,kingbird,magnum,manila,mistral,monasca-api,murano,networking-fortinet,networking-l2gw,networking-plumgrid,networking-vsphere,neutron,neutron-fwaas,neutron-lbaas,neutron-vpnaas,python-heatclient,python-manilaclient,python-openstackclient,sahara,sahara-tests,senlin,solum,tap-as-a-service,vmware-nsx,watcher,zaqar</t>
-  </si>
-  <si>
     <t>tempest.lib.decorators</t>
   </si>
   <si>
@@ -353,40 +218,10 @@
     <t>lib.exceptions</t>
   </si>
   <si>
-    <t>aodh,ceilometer,cerberus,congress,cue,designate,ec2-api,intel-nfv-ci-tests,ironic,magnum,manila,mistral,monasca-api,monasca-log-api,murano,networking-bgpvpn,networking-fortinet,networking-l2gw,networking-plumgrid,networking-vsphere,neutron,neutron-fwaas,neutron-lbaas,neutron-vpnaas,python-aodhclient,python-cinderclient,python-designateclient,python-glanceclient,python-gnocchiclient,python-heatclient,python-ironicclient,python-manilaclient,python-mistralclient,python-muranoclient,python-neutronclient,python-novaclient,python-saharaclient,sahara-tests,senlin,solum,tap-as-a-service,vmware-nsx,watcher,zaqar</t>
-  </si>
-  <si>
-    <t>tempest.lib.services</t>
-  </si>
-  <si>
-    <t>lib.services</t>
-  </si>
-  <si>
-    <t>ceilometer,cue,networking-bgpvpn,networking-fortinet,neutron-fwaas,tap-as-a-service,vmware-nsx</t>
-  </si>
-  <si>
-    <t>tempest.lib.tests</t>
-  </si>
-  <si>
-    <t>lib.tests</t>
-  </si>
-  <si>
     <t>total_count</t>
   </si>
   <si>
     <t>aodh,blazar,ceilometer,cerberus,congress,designate,ec2-api,freezer,freezer-api,gce-api,gnocchi,intel-nfv-ci-tests,ironic,kingbird,manila,mistral,monasca-api,monasca-log-api,murano,networking-bgpvpn,networking-fortinet,networking-l2gw,networking-vsphere,neutron,neutron-fwaas,neutron-lbaas,neutron-vpnaas,sahara,sahara-tests,senlin,tap-as-a-service,vitrage,vmware-nsx,watcher,zaqar</t>
-  </si>
-  <si>
-    <t>pad count</t>
-  </si>
-  <si>
-    <t>pad total</t>
-  </si>
-  <si>
-    <t>pad_count</t>
-  </si>
-  <si>
-    <t>pad_total</t>
   </si>
   <si>
     <t>tempest.api.compute</t>
@@ -1024,7 +859,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -1069,60 +904,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1187,7 +968,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tempest!$C$1</c:f>
+              <c:f>tempest_data!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1205,89 +986,131 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
+              <c:f>tempest_data!$B$2:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>config</c:v>
+                  <c:v>test</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>test</c:v>
+                  <c:v>clients</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>test_discover</c:v>
+                  <c:v>exceptions</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>common</c:v>
+                  <c:v>common.utils</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>clients</c:v>
+                  <c:v>scenario.manager</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>exceptions</c:v>
+                  <c:v>common.credentials_factory</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>scenario</c:v>
+                  <c:v>manager</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>manager</c:v>
+                  <c:v>api.network</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>api</c:v>
+                  <c:v>common.waiters</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>services</c:v>
+                  <c:v>services.network</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>services.identity</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>auth</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
+                <c:pt idx="12">
+                  <c:v>common.compute</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>common.dynamic_creds</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>openstack.common</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>scenario.utils</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>services.image</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>services.object_storage</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>api.compute</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempest!$C$2:$C$13</c:f>
+              <c:f>tempest_data!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,11 +1125,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="302826728"/>
-        <c:axId val="302827120"/>
+        <c:axId val="317130568"/>
+        <c:axId val="317132528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="302826728"/>
+        <c:axId val="317130568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302827120"/>
+        <c:crossAx val="317132528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302827120"/>
+        <c:axId val="317132528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302826728"/>
+        <c:crossAx val="317130568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1372,560 +1195,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total imports (vs. Report</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> with 1+ import)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="800000">
-                <a:alpha val="20000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>common</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>clients</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>scenario</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>api</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>services</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tempest!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pad_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>common</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>clients</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>scenario</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>api</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>services</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tempest!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="302827904"/>
-        <c:axId val="302828688"/>
-      </c:barChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pad_total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>common</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>clients</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>scenario</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>api</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>services</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tempest!$E$2:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tempest!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>tempest!$B$2:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>config</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test_discover</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>common</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>clients</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exceptions</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>scenario</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>api</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>services</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>openstack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tempest!$F$2:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="302829472"/>
-        <c:axId val="302829080"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="302827904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" cap="small"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="302828688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="302828688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:srgbClr val="800000"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="302827904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="302829080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="302829472"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="302829472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302829080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1976,7 +1245,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>lib!$C$1</c:f>
+              <c:f>lib_data!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1996,65 +1265,95 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>lib!$B$2:$B$9</c:f>
+              <c:f>lib_data!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>lib.exceptions</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>lib.common</c:v>
+                  <c:v>config</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>lib.cli</c:v>
+                  <c:v>test_discover.plugins</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>lib.common.utils</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>lib.common.rest_client</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lib.cli.base</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>lib.decorators</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>lib.base</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>lib.services</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>lib.cli.output_parser</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>lib.common.ssh</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>lib.services.network</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>lib.auth</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>lib.tests</c:v>
+                <c:pt idx="12">
+                  <c:v>lib.services.compute</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lib!$C$2:$C$9</c:f>
+              <c:f>lib_data!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,11 +1368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="304619392"/>
-        <c:axId val="304620176"/>
+        <c:axId val="317131744"/>
+        <c:axId val="317132920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="304619392"/>
+        <c:axId val="317131744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2093,7 +1392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304620176"/>
+        <c:crossAx val="317132920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2101,7 +1400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304620176"/>
+        <c:axId val="317132920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +1427,283 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304619392"/>
+        <c:crossAx val="317131744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Repos with 1+ imports </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tempest_detailed!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="950004"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tempest_detailed!$B$2:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>config</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_discover.plugins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clients</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exceptions</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>common.utils</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scenario.manager</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>common.credentials_factory</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>manager</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>api.network</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>common.waiters</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>services.network</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>services.identity</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>auth</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>common.compute</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>common.dynamic_creds</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>openstack.common</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>scenario.utils</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>services.image</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>services.object_storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tempest_detailed!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="316521664"/>
+        <c:axId val="316516568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="316521664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" cap="small"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316516568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316516568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316521664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2165,12 +1740,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Repos with 1+ imports </a:t>
+              <a:t>Repos with 1+ imports per tempest.lib namespace</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2181,11 +1761,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tempest_detailed!$C$1</c:f>
+              <c:f>lib_detailed!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2196,143 +1776,91 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="950004"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>tempest_detailed!$B$2:$B$51</c:f>
+              <c:f>lib_detailed!$B$2:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>config</c:v>
+                  <c:v>lib.exceptions</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>test</c:v>
+                  <c:v>lib.common.utils</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>test_discover.plugins</c:v>
+                  <c:v>lib.common.rest_client</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>clients</c:v>
+                  <c:v>lib.cli.base</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>exceptions</c:v>
+                  <c:v>lib.decorators</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>common.utils</c:v>
+                  <c:v>lib.base</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>scenario.manager</c:v>
+                  <c:v>lib.cli.output_parser</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>common.credentials_factory</c:v>
+                  <c:v>lib.common.ssh</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>manager</c:v>
+                  <c:v>lib.services.network</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>api.network</c:v>
+                  <c:v>lib.auth</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>common.waiters</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>services.network</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>services.identity</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>auth</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>common.compute</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>common.dynamic_creds</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>openstack.common</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>scenario.utils</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>services.image</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>services.object_storage</c:v>
+                  <c:v>lib.services.compute</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempest_detailed!$C$2:$C$51</c:f>
+              <c:f>lib_detailed!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2348,11 +1876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="304620568"/>
-        <c:axId val="304618608"/>
+        <c:axId val="316518528"/>
+        <c:axId val="316516960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="304620568"/>
+        <c:axId val="316518528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +1900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304618608"/>
+        <c:crossAx val="316516960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,7 +1908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304618608"/>
+        <c:axId val="316516960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2398,14 +1926,16 @@
             <a:pPr>
               <a:defRPr>
                 <a:solidFill>
-                  <a:srgbClr val="800000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304620568"/>
+        <c:crossAx val="316518528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2453,7 +1983,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2468,11 +1997,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>lib_detailed!$C$1</c:f>
+              <c:f>lib_detailed!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>count</c:v>
+                  <c:v>total_count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2488,7 +2017,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>lib_detailed!$B$2:$B$22</c:f>
+              <c:f>lib_detailed!$B$2:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2529,42 +2058,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lib_detailed!$C$2:$C$22</c:f>
+              <c:f>lib_detailed!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2579,11 +2108,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="304619784"/>
-        <c:axId val="304615864"/>
+        <c:axId val="316515000"/>
+        <c:axId val="316518136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="304619784"/>
+        <c:axId val="316515000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304615864"/>
+        <c:crossAx val="316518136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2611,7 +2140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304615864"/>
+        <c:axId val="316518136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304619784"/>
+        <c:crossAx val="316515000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2651,239 +2180,6 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Repos with 1+ imports per tempest.lib namespace</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lib_detailed!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total_count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lib_detailed!$B$2:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>lib.exceptions</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>lib.common.utils</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>lib.common.rest_client</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>lib.cli.base</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>lib.decorators</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>lib.base</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>lib.cli.output_parser</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>lib.common.ssh</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>lib.services.network</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>lib.auth</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>lib.services.compute</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lib_detailed!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="304617824"/>
-        <c:axId val="304622136"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="304617824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" cap="small"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304622136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="304622136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304617824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2957,7 +2253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E5E8C8B-903E-431B-A64F-CB8F37057D64}" type="CELLRANGE">
+                    <a:fld id="{F553099C-4E3D-441C-BEB4-8F5DA4477235}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2988,7 +2284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EB8B691-707F-4541-88AD-99C45A758A75}" type="CELLRANGE">
+                    <a:fld id="{34669C6F-59F4-4E64-BC5C-99C5C8165E86}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3020,7 +2316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EB7A7DB-2D83-45E2-86E5-19EC29B1C5B2}" type="CELLRANGE">
+                    <a:fld id="{4EC8AB41-0841-4CE2-846B-BA90DDB23FD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3052,7 +2348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAA2EF93-0CF8-4A84-87F7-17BB77E69E5B}" type="CELLRANGE">
+                    <a:fld id="{80F59934-8BDC-4761-AC9E-5C6C04A54DF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3084,7 +2380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14337F6F-7492-4FD1-998F-E44856835700}" type="CELLRANGE">
+                    <a:fld id="{4DC17D4A-3F02-473A-AAF9-E60E2DD1EB95}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3116,7 +2412,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A014C59C-70EC-437B-807A-F615653ECF62}" type="CELLRANGE">
+                    <a:fld id="{F6524D6C-CD9C-4598-83C4-67DAE8949987}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3148,7 +2444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{277573DC-B4C2-43E5-ABF1-DE36C914CA54}" type="CELLRANGE">
+                    <a:fld id="{D8CDA7C7-037B-408E-ABFF-5B4C8CAFD7EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3180,7 +2476,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D751515-D505-45D4-8467-8BBF20DEF99A}" type="CELLRANGE">
+                    <a:fld id="{C221465E-1667-4B67-8A13-48E5C91B72A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3212,7 +2508,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50DFD2A4-0505-4499-82BB-7E8346584CF6}" type="CELLRANGE">
+                    <a:fld id="{8E164CF5-B38F-462B-B83E-AB1327DEA8FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3244,7 +2540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB926313-05B0-4D67-B410-09EBF569F337}" type="CELLRANGE">
+                    <a:fld id="{5B08D582-70FE-4E75-BC03-A7923218C6C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3276,7 +2572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A6FD0E1-9E70-44E1-BE41-2634780EA35B}" type="CELLRANGE">
+                    <a:fld id="{B45D125A-D96C-4C9A-923A-1407B2C61298}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3308,7 +2604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36A24CE9-772A-42B1-A8AA-DD8DA3934B1A}" type="CELLRANGE">
+                    <a:fld id="{AF2898D4-C579-4116-89A0-A0FE3D11D9A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3340,7 +2636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EE1EF31-4F0A-4002-9042-4E398F1295C5}" type="CELLRANGE">
+                    <a:fld id="{CB713475-B795-4CCD-B001-8EE1824C0682}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3372,7 +2668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A83EBEED-854E-4F5D-8538-C78B6BC44BDC}" type="CELLRANGE">
+                    <a:fld id="{25B48977-C2E2-4D30-8A12-C398432AA64F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3404,7 +2700,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F398EA54-835B-455F-B289-A14BCE8F4DD3}" type="CELLRANGE">
+                    <a:fld id="{D001A1D0-8386-4D9E-9EC5-A86962324BB3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3436,7 +2732,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AF2BE6D-CF7A-4F3B-A956-3E04DBAC46D8}" type="CELLRANGE">
+                    <a:fld id="{09725361-D79C-4C72-8D2C-C7F66A12DAE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3468,7 +2764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF4D53F2-E1A3-478B-B71C-A88AD3AFC40E}" type="CELLRANGE">
+                    <a:fld id="{B0203BC8-F719-4E5E-BA55-1203CE194777}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3500,7 +2796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{668D99BB-70C4-438B-B1A3-84AB596F9670}" type="CELLRANGE">
+                    <a:fld id="{A11B2223-3977-4970-A47A-B6DAFC8C7796}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3532,7 +2828,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6443DD75-0887-4918-92D2-C37AAFC163BE}" type="CELLRANGE">
+                    <a:fld id="{32CCEBB3-A8D4-4557-8D61-7A7102EB7568}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3564,7 +2860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E70BE38-6AFE-42D8-B83C-AA005551B3BA}" type="CELLRANGE">
+                    <a:fld id="{3DAD14AF-137D-4204-845F-222D12CC9A87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3596,7 +2892,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A9BBA19-630D-4E56-97B7-DF785A50A112}" type="CELLRANGE">
+                    <a:fld id="{3378DCAD-BE69-4813-B54F-0069BFE822D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3628,7 +2924,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DFF752D-7F0B-4D87-A71B-FF801FD9B89A}" type="CELLRANGE">
+                    <a:fld id="{40FA1086-3F02-4D60-940A-83892DFB4F0F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3660,7 +2956,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{628EC5BD-91FC-45B3-97C8-DF1E870E5474}" type="CELLRANGE">
+                    <a:fld id="{796F4A6C-C88B-470E-B2A4-F02A9C9BC2E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3692,7 +2988,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2DDCC46-9524-4940-8CCB-57B997B4B4F2}" type="CELLRANGE">
+                    <a:fld id="{66E2679E-7F2A-4874-858E-2BED9467A147}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3724,7 +3020,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85D58691-2AC5-41DF-BECF-FB1ABDF7CC91}" type="CELLRANGE">
+                    <a:fld id="{4EFD6E5F-991F-4989-BCDD-8DDB247BFE83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3756,7 +3052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{125B2B14-9840-444B-A02F-F6F76A179AEC}" type="CELLRANGE">
+                    <a:fld id="{11585593-BD9E-4A27-931E-C1A3E8D2983F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3788,7 +3084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08CC9EA7-E96A-4FD9-AD31-CBDF00DD7E01}" type="CELLRANGE">
+                    <a:fld id="{B777E1D7-006E-4B23-A65E-727B8432E14B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3820,7 +3116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0D1D94E-DD44-4B09-A807-9ED9D4F6E324}" type="CELLRANGE">
+                    <a:fld id="{4455A097-586F-4901-9DB2-76C1389388C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3852,7 +3148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5A68AD9-DD1C-423E-AA98-228CEE0065E0}" type="CELLRANGE">
+                    <a:fld id="{BB97DA32-EE25-4720-BDD7-C53C58D18A62}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4203,11 +3499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="304578320"/>
-        <c:axId val="304576752"/>
+        <c:axId val="316517352"/>
+        <c:axId val="316522448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="304578320"/>
+        <c:axId val="316517352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4217,14 +3513,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="304576752"/>
+        <c:crossAx val="316522448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="304576752"/>
+        <c:axId val="316522448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,7 +3531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="304578320"/>
+        <c:crossAx val="316517352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4247,7 +3543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4329,7 +3625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DBB8D78-036D-4FC2-AEA2-DDBF836707BE}" type="CELLRANGE">
+                    <a:fld id="{F6A6CC4D-E6B0-4671-AACB-35DBCB0267B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4360,7 +3656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DD84AC6-BE9C-4F85-B2AC-9F688918405F}" type="CELLRANGE">
+                    <a:fld id="{1D75963F-5D3A-40A5-8E70-E3F4D2FBBA1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4392,7 +3688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37CA2229-7671-49FA-AFCB-9311C22E6530}" type="CELLRANGE">
+                    <a:fld id="{ECED5542-1BDE-4B64-998C-E8F35B7436BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4424,7 +3720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FDB019A-3E63-4AA1-A9DE-2677998F817A}" type="CELLRANGE">
+                    <a:fld id="{0C8BFCDB-E4C7-449C-B947-C3130F160627}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4456,7 +3752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7593C3F-F06D-4AAE-A3F5-9C070A25562C}" type="CELLRANGE">
+                    <a:fld id="{0E62673B-F61E-44EA-9BAA-CF2BC9984705}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4488,7 +3784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBC477C3-84C5-4F48-9294-4A09C7AF6762}" type="CELLRANGE">
+                    <a:fld id="{238F0388-BEE0-4266-B77A-FE0AF48769ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4520,7 +3816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A76DD7A5-E1E5-4A1E-A93A-6B418997A888}" type="CELLRANGE">
+                    <a:fld id="{AB64BC3E-1688-4D58-A9D1-9B0A35B8855E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4552,7 +3848,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{884BFD9A-5F45-471C-B14B-95B6F519AA76}" type="CELLRANGE">
+                    <a:fld id="{42D4EE06-2963-42CC-9CC9-71366E7136C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4584,7 +3880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E3BE5C3-0AB6-4990-9288-64B038A6814F}" type="CELLRANGE">
+                    <a:fld id="{CBA4B474-2CD5-44EF-9703-A024CA4BC127}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4616,7 +3912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10DEA08C-7487-4CCE-BCF7-862272573446}" type="CELLRANGE">
+                    <a:fld id="{54D608E5-1FD6-4A87-98B3-5C4ADE84AC23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4648,7 +3944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B26B56F2-C1F5-4AB9-8221-D9D98E4629A2}" type="CELLRANGE">
+                    <a:fld id="{8F0A10DD-FC37-4812-BCA8-A4D7D6EB3B70}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4680,7 +3976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9E20DE0-11D7-4E5A-B4F6-023EFED27919}" type="CELLRANGE">
+                    <a:fld id="{CB337B7C-22B1-43F2-97B1-09246C9F67CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4712,7 +4008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{523DDBC8-5079-4BC0-BF08-96F5BC26034E}" type="CELLRANGE">
+                    <a:fld id="{48488DE7-1727-4864-B7CF-B32A6BCC6A55}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4744,7 +4040,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD92A741-4DB5-440C-9EA7-95567E232F8D}" type="CELLRANGE">
+                    <a:fld id="{C4ED08E0-184B-4ED1-B29D-7536147E1D0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4960,11 +4256,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="291537904"/>
-        <c:axId val="291538296"/>
+        <c:axId val="316516176"/>
+        <c:axId val="316519704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="291537904"/>
+        <c:axId val="316516176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4974,14 +4270,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291538296"/>
+        <c:crossAx val="316519704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="291538296"/>
+        <c:axId val="316519704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4992,7 +4288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291537904"/>
+        <c:crossAx val="316516176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5008,7 +4304,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5019,7 +4315,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5067,6 +4363,9 @@
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="7644" divId="tempest_deps_7644" sourceType="chart" destinationFile="Z:\git\github.com\andreafrittoli\tempest_stable_interfaces\data\tmp\tempest_deps.htm"/>
+  </webPublishItems>
 </chartsheet>
 </file>
 
@@ -5078,20 +4377,6 @@
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <webPublishItems count="1">
-    <webPublishItem id="7644" divId="tempest_deps_7644" sourceType="chart" destinationFile="Z:\git\github.com\andreafrittoli\tempest_stable_interfaces\data\tmp\tempest_deps.htm"/>
-  </webPublishItems>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -5099,7 +4384,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9211519" cy="5618544"/>
+    <xdr:ext cx="8659813" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5126,7 +4411,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9211519" cy="5618544"/>
+    <xdr:ext cx="8659813" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5284,88 +4569,49 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659813" cy="6286500"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_tempest_imports" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_tempest_imports_detailed" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_lib_imports" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_lib_imports_detailed" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_tempest_imports_detailed" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repo_per_lib_imports_detailed" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tempest_plugins" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tempest_plugins" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:G19"/>
-  <sortState ref="A2:E19">
-    <sortCondition descending="1" ref="C1:C19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+  <autoFilter ref="A1:E49"/>
+  <sortState ref="A2:E49">
+    <sortCondition descending="1" ref="C1:C49"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="import" dataDxfId="30"/>
-    <tableColumn id="2" name="namespace" dataDxfId="29"/>
-    <tableColumn id="3" name="count" dataDxfId="28"/>
-    <tableColumn id="7" name="pad_count" dataDxfId="27"/>
-    <tableColumn id="6" name="pad_total" dataDxfId="26"/>
-    <tableColumn id="4" name="total_count" dataDxfId="25"/>
-    <tableColumn id="5" name="repos" dataDxfId="24"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="import"/>
+    <tableColumn id="2" name="namespace"/>
+    <tableColumn id="3" name="count"/>
+    <tableColumn id="4" name="total_count"/>
+    <tableColumn id="5" name="repos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:G9"/>
-  <sortState ref="A2:E9">
-    <sortCondition descending="1" ref="C1:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:E24" totalsRowShown="0">
+  <autoFilter ref="A1:E24"/>
+  <sortState ref="A2:E24">
+    <sortCondition descending="1" ref="C1:C24"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="import" dataDxfId="21"/>
-    <tableColumn id="2" name="namespace" dataDxfId="20"/>
-    <tableColumn id="3" name="count" dataDxfId="19"/>
-    <tableColumn id="7" name="pad count" dataDxfId="18"/>
-    <tableColumn id="6" name="pad total" dataDxfId="17"/>
-    <tableColumn id="4" name="total_count" dataDxfId="16"/>
-    <tableColumn id="5" name="repos" dataDxfId="15"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="import"/>
+    <tableColumn id="2" name="namespace"/>
+    <tableColumn id="3" name="count"/>
+    <tableColumn id="4" name="total_count"/>
+    <tableColumn id="5" name="repos"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5740,602 +4986,1292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A49" sqref="A21:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="0.8125" customWidth="1"/>
-    <col min="6" max="6" width="13.1875" customWidth="1"/>
-    <col min="7" max="7" width="80.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="141.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>196</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>305</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>82</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
         <v>12</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>126</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="E48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.8125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="13.1875" customWidth="1"/>
-    <col min="7" max="7" width="80.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="126" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>218</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>216</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="1">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="1">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="E12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6343,7 +6279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A51" sqref="A22:XFD51"/>
     </sheetView>
   </sheetViews>
@@ -6359,27 +6295,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>36</v>
@@ -6388,7 +6324,7 @@
         <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="0.5">
@@ -6396,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>35</v>
@@ -6405,15 +6341,15 @@
         <v>305</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2">
         <v>31</v>
@@ -6422,15 +6358,15 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>15</v>
@@ -6439,15 +6375,15 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>13</v>
@@ -6456,15 +6392,15 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>12</v>
@@ -6473,15 +6409,15 @@
         <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -6490,15 +6426,15 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -6507,15 +6443,15 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -6524,15 +6460,15 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -6541,15 +6477,15 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
@@ -6558,15 +6494,15 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -6575,15 +6511,15 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
@@ -6592,15 +6528,15 @@
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -6609,15 +6545,15 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -6626,15 +6562,15 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -6643,15 +6579,15 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -6660,15 +6596,15 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -6677,15 +6613,15 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -6694,15 +6630,15 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -6711,15 +6647,15 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -6728,15 +6664,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -6750,10 +6686,10 @@
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -6762,15 +6698,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -6784,10 +6720,10 @@
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -6801,10 +6737,10 @@
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -6818,10 +6754,10 @@
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -6835,10 +6771,10 @@
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -6852,10 +6788,10 @@
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -6869,10 +6805,10 @@
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -6881,15 +6817,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -6898,15 +6834,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -6915,15 +6851,15 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -6937,10 +6873,10 @@
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -6949,15 +6885,15 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -6971,10 +6907,10 @@
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -6988,10 +6924,10 @@
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -7005,10 +6941,10 @@
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -7017,15 +6953,15 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -7039,10 +6975,10 @@
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -7056,10 +6992,10 @@
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -7073,10 +7009,10 @@
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -7090,10 +7026,10 @@
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -7107,10 +7043,10 @@
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -7124,10 +7060,10 @@
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -7141,10 +7077,10 @@
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -7158,10 +7094,10 @@
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -7175,10 +7111,10 @@
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -7192,10 +7128,10 @@
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -7204,15 +7140,15 @@
         <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -7257,27 +7193,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="126" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>43</v>
@@ -7286,15 +7222,15 @@
         <v>218</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2">
         <v>28</v>
@@ -7303,15 +7239,15 @@
         <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2">
         <v>22</v>
@@ -7320,15 +7256,15 @@
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
@@ -7337,15 +7273,15 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -7354,15 +7290,15 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>9</v>
@@ -7371,15 +7307,15 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
@@ -7388,15 +7324,15 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -7405,15 +7341,15 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -7422,15 +7358,15 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
@@ -7439,15 +7375,15 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -7456,15 +7392,15 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -7478,10 +7414,10 @@
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -7495,10 +7431,10 @@
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -7512,10 +7448,10 @@
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -7524,15 +7460,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -7541,15 +7477,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -7558,15 +7494,15 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -7580,10 +7516,10 @@
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -7597,10 +7533,10 @@
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -7614,10 +7550,10 @@
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -7626,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7659,13 +7595,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
@@ -7676,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -7687,7 +7623,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -7698,7 +7634,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -7709,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
@@ -7720,7 +7656,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -7731,7 +7667,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
@@ -7753,7 +7689,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -7764,7 +7700,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
@@ -7775,7 +7711,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
@@ -7786,7 +7722,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
@@ -7797,7 +7733,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
@@ -7808,7 +7744,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
@@ -7819,7 +7755,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
@@ -7830,7 +7766,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
@@ -7841,7 +7777,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -7852,7 +7788,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
@@ -7863,7 +7799,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
@@ -7874,7 +7810,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
@@ -7885,7 +7821,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
@@ -7896,7 +7832,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -7907,7 +7843,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -7918,7 +7854,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
@@ -7929,7 +7865,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -7940,7 +7876,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
@@ -7951,7 +7887,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
@@ -7962,7 +7898,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
@@ -7973,7 +7909,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
@@ -7984,7 +7920,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -8014,13 +7950,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
@@ -8031,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -8042,7 +7978,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -8053,7 +7989,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -8064,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
@@ -8075,7 +8011,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -8086,7 +8022,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
@@ -8097,7 +8033,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
@@ -8108,7 +8044,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -8119,7 +8055,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
@@ -8130,7 +8066,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
@@ -8141,7 +8077,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
@@ -8152,7 +8088,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
@@ -8163,7 +8099,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
@@ -8174,7 +8110,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
